--- a/biology/Zoologie/Antilloides/Antilloides.xlsx
+++ b/biology/Zoologie/Antilloides/Antilloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antilloides est un genre d'araignées aranéomorphes de la famille des Filistatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antilloides est un genre d'araignées aranéomorphes de la famille des Filistatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux Antilles et au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux Antilles et au Mexique.
 </t>
         </is>
       </c>
@@ -542,16 +556,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 20.0, 22/01/2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 20.0, 22/01/2019) :
 Antilloides abeli Brescovit, Sánchez-Ruiz &amp; Alayón, 2016
 Antilloides chupacabras Magalhães, 2018
 Antilloides cubitas Brescovit, Sánchez-Ruiz &amp; Alayón, 2016
 Antilloides haitises Brescovit, Sánchez-Ruiz &amp; Alayón, 2016
 Antilloides mesoliticus Brescovit, Sánchez-Ruiz &amp; Alayón, 2016
 Antilloides zozo Brescovit, Sánchez-Ruiz &amp; Alayón, 2016
-Selon The World Spider Catalog (version 19.5, 2019)[3] :
+Selon The World Spider Catalog (version 19.5, 2019) :
 †Antilloides didicostae (Penney, 2005) de l'ambre du Miocène d'Hispaniola</t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brescovit, Sánchez-Ruiz &amp; Alayón, 2016 : The Filistatidae in the Caribbean region, with a description of the new genus Antilloides, revision of the genus Filistatoides F. O. P.-Cambridge and notes on Kukulcania Lehtinen (Arachnida, Araneae). Zootaxa, no 4136(3), p. 401-432.</t>
         </is>
